--- a/docs/assets/disciplinas/LOQ4252.xlsx
+++ b/docs/assets/disciplinas/LOQ4252.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer os conceitos básicos de Mecânica dos Fluidos e Transferência de Calor e Massa com aplicações à Engenharia. Possibilitar aos alunos uma base científica para que possam se desenvolver em demais disciplinas tecnológicas do curso.</t>
+    <t>4808662 - Lucrécio Fábio dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4808662 - Lucrécio Fábio dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Conceitos ligados ao escoamento de fluídos e equações fundamentais, Escoamento incompressível de fluidos não viscosos, Escoamento viscoso incompressível, Transferência de Calor. Transferência de Massa</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Conceitos ligados ao escoamento de fluídos e equações fundamentais1.1. Características e definições dos escoamentos;1.2. Conceitos de sistema e volume de controle;1.3. Equação da conservação da massa;1.4. Equação da conservação da energia;1.5. Equação da conservação da quantidade de movimento;1.6. Introdução à análise diferencial do movimento de fluidos.2. Escoamento incompressível de fluidos não viscosos2.1. Equação de Euler;2.2. Equação de Bernoulli;2.3. Aplicações da equação de Bernoulli.3. Escoamento viscoso incompressível3.1. Atrito e perda de carga;3.2. Avaliação das perdas de carga: regime laminar e turbulento;3.3. Equações de Hagen - Poiseuille e Darcy – Weisbach3.4. Diagrama de Moody e Moody –Rouse;3.5. Método dos comprimentos equivalentes.3.6. Presença de máquina no escoamento (bomba e turbina), Potência e rendimento;3.7. Medidores de vazão.4. Transferência de Calor4.1. Definição de Calor.4.2. Mecanismo da Condução.4.3. Mecanismo da Convecção.4.4. Associação de Mecanismos.5. Transferência de Massa5.1. Difusão e convecção mássica;5.2. 1ª lei de Fick;5.3. Concentrações mássica e molar;5.4. Frações mássica e molar;5.5. Velocidades médias mássica e molar;5.6. Fluxos difusivo mássico, difusivo molar, convectivo mássico e convectivo molar;5.7. Fluxo mássico total e fluxo molar total.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios, aulas de laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota de duas provas (P1 e P2)Fórmula: M1 = (P1 + 2 x P2)/3..</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova envolvendo o assunto de todo semestre.NR (nota da recuperação) = (M1 + NR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. FOX, R.W., MCDONALD, A.T., “Introdução à Mecânica dos Fluidos”, Ed. Guanabara Koogan.2. STREETER, V.L., WYLE,E.B., “Mecânica dos Fluidos”, Ed. Mc Graw Hill.3. OZISIK,M.N., “Transferência de Calor.”, Ed. Guanabara Koogan.4. INCROPERA, F.P.W., “Fundamentos de Transferência de Calor e Massa”, Ed. Guanabara Koogan.5. MUNSON, B.R.; YOUNG, D.F.; OKIISHI, T.H. Fundamentos da Mecânica dos Fluidos. Editora Edgard Blucher6 - GIORGETI, M. (2012) Fundamentos de Fenômenos de Transporte. Editora Campus</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4252.xlsx
+++ b/docs/assets/disciplinas/LOQ4252.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer os conceitos básicos de Mecânica dos Fluidos e Transferência de Calor e Massa com aplicações à Engenharia. Possibilitar aos alunos uma base científica para que possam se desenvolver em demais disciplinas tecnológicas do curso.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4808662 - Lucrécio Fábio dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Conceitos ligados ao escoamento de fluídos e equações fundamentais, Escoamento incompressível de fluidos não viscosos, Escoamento viscoso incompressível, Transferência de Calor. Transferência de Massa</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Conceitos ligados ao escoamento de fluídos e equações fundamentais1.1. Características e definições dos escoamentos;1.2. Conceitos de sistema e volume de controle;1.3. Equação da conservação da massa;1.4. Equação da conservação da energia;1.5. Equação da conservação da quantidade de movimento;1.6. Introdução à análise diferencial do movimento de fluidos.2. Escoamento incompressível de fluidos não viscosos2.1. Equação de Euler;2.2. Equação de Bernoulli;2.3. Aplicações da equação de Bernoulli.3. Escoamento viscoso incompressível3.1. Atrito e perda de carga;3.2. Avaliação das perdas de carga: regime laminar e turbulento;3.3. Equações de Hagen - Poiseuille e Darcy – Weisbach3.4. Diagrama de Moody e Moody –Rouse;3.5. Método dos comprimentos equivalentes.3.6. Presença de máquina no escoamento (bomba e turbina), Potência e rendimento;3.7. Medidores de vazão.4. Transferência de Calor4.1. Definição de Calor.4.2. Mecanismo da Condução.4.3. Mecanismo da Convecção.4.4. Associação de Mecanismos.5. Transferência de Massa5.1. Difusão e convecção mássica;5.2. 1ª lei de Fick;5.3. Concentrações mássica e molar;5.4. Frações mássica e molar;5.5. Velocidades médias mássica e molar;5.6. Fluxos difusivo mássico, difusivo molar, convectivo mássico e convectivo molar;5.7. Fluxo mássico total e fluxo molar total.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios, aulas de laboratório.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios, aulas de laboratório.</t>
+    <t>Nota de duas provas (P1 e P2)Fórmula: M1 = (P1 + 2 x P2)/3..</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota de duas provas (P1 e P2)Fórmula: M1 = (P1 + 2 x P2)/3..</t>
+    <t>Aplicação de uma prova envolvendo o assunto de todo semestre.NR (nota da recuperação) = (M1 + NR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova envolvendo o assunto de todo semestre.NR (nota da recuperação) = (M1 + NR)/2.</t>
+    <t>1. FOX, R.W., MCDONALD, A.T., “Introdução à Mecânica dos Fluidos”, Ed. Guanabara Koogan.2. STREETER, V.L., WYLE,E.B., “Mecânica dos Fluidos”, Ed. Mc Graw Hill.3. OZISIK,M.N., “Transferência de Calor.”, Ed. Guanabara Koogan.4. INCROPERA, F.P.W., “Fundamentos de Transferência de Calor e Massa”, Ed. Guanabara Koogan.5. MUNSON, B.R.; YOUNG, D.F.; OKIISHI, T.H. Fundamentos da Mecânica dos Fluidos. Editora Edgard Blucher6 - GIORGETI, M. (2012) Fundamentos de Fenômenos de Transporte. Editora Campus</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,106 +616,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
